--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B78\Workspace\b78framework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A5C73-01A8-4B4F-A518-E196F8307C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{252553E1-8173-4462-AB0E-5CCA92125B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="2" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -37,6 +34,18 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>manager1</t>
   </si>
 </sst>
 </file>
@@ -356,13 +365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072D2723-967F-4629-AC7A-2D368F1CECEE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,12 +379,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9F7D53-EC0F-432A-B4FB-674320E6ADFD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
